--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -459,10 +459,19 @@
     </r>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Y: Goals</t>
+  </si>
+  <si>
+    <t>XY: Milestone</t>
+  </si>
+  <si>
+    <t>X: Complete</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -919,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,6 +993,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,24 +1287,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,269 +1296,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,68 +1616,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1681,41 +1694,47 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="100"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="106"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1730,42 +1749,45 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="O7" s="123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1781,111 +1803,111 @@
       <c r="M10" s="15"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="23" t="s">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.2</v>
       </c>
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1.3</v>
       </c>
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -1895,19 +1917,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -1917,38 +1939,38 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1957,21 +1979,21 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -1981,20 +2003,22 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -2003,21 +2027,21 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2027,19 +2051,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2049,19 +2073,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2071,21 +2095,21 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2095,40 +2119,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2137,19 +2161,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2159,19 +2183,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2181,58 +2205,58 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="107">
         <v>0.05</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="45"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="103"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="46"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="104"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2241,19 +2265,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="76"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2263,19 +2287,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2285,76 +2309,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="77">
         <v>0.08</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="54"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="70"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="70"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2363,19 +2387,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2385,19 +2409,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="28"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="76"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2407,19 +2431,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="28"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2429,21 +2453,21 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="90"/>
       <c r="N42" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2453,60 +2477,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="31"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="90"/>
       <c r="N43" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="107">
         <v>0.02</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="45"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="103"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="46"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="104"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2515,19 +2539,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="76"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2537,19 +2561,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="28"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="76"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2559,58 +2583,58 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="28"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="76"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="93">
         <v>0.02</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="55"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="91"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="56"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="92"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2619,21 +2643,21 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="31"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="90"/>
       <c r="N51" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2643,19 +2667,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="28"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="76"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2665,19 +2689,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="28"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="76"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2687,19 +2711,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="28"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2709,38 +2733,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="28"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="87"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2749,21 +2773,21 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="90"/>
       <c r="N57" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2773,21 +2797,21 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="31"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="90"/>
       <c r="N58" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2797,21 +2821,21 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="28"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
       <c r="N59" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2821,19 +2845,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="28"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="76"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2843,76 +2867,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="28"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="76"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="52">
+      <c r="A62" s="73">
         <v>5.6</v>
       </c>
-      <c r="B62" s="51">
+      <c r="B62" s="77">
         <v>0.08</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="54"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="54"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2921,19 +2945,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2953,16 +2977,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="107">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="108"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -2974,16 +2998,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="78">
+      <c r="B68" s="32"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="83">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="E68" s="79"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -2995,21 +3019,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="74" t="str">
+      <c r="B69" s="32"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>4/13</v>
       </c>
-      <c r="E69" s="75"/>
-      <c r="F69" s="76" t="str">
+      <c r="E69" s="80"/>
+      <c r="F69" s="81" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>11/38%</v>
       </c>
-      <c r="G69" s="77"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3072,861 +3096,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="94"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="66"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="95" t="s">
+      <c r="B74" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="97"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="63"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="95" t="s">
+      <c r="B75" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="97"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="63"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="80" t="s">
+      <c r="B76" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
-      <c r="M76" s="81"/>
-      <c r="N76" s="82"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="51"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="88"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="81"/>
-      <c r="M78" s="81"/>
-      <c r="N78" s="82"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="51"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="89"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="85"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="58"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="89"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="87"/>
-      <c r="L80" s="87"/>
-      <c r="M80" s="87"/>
-      <c r="N80" s="88"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="80" t="s">
+      <c r="B81" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="81"/>
-      <c r="N81" s="82"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="51"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="89"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="85"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="58"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="88"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B84" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="81"/>
-      <c r="K84" s="81"/>
-      <c r="L84" s="81"/>
-      <c r="M84" s="81"/>
-      <c r="N84" s="82"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="51"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="87"/>
-      <c r="K85" s="87"/>
-      <c r="L85" s="87"/>
-      <c r="M85" s="87"/>
-      <c r="N85" s="88"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="95" t="s">
+      <c r="B86" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="97"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="63"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="82"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="51"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="89"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="K88" s="84"/>
-      <c r="L88" s="84"/>
-      <c r="M88" s="84"/>
-      <c r="N88" s="85"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="58"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="85"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="58"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="86"/>
-      <c r="C90" s="87"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="87"/>
-      <c r="M90" s="87"/>
-      <c r="N90" s="88"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="53"/>
+      <c r="M90" s="53"/>
+      <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="80" t="s">
+      <c r="B91" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="81"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-      <c r="K91" s="81"/>
-      <c r="L91" s="81"/>
-      <c r="M91" s="81"/>
-      <c r="N91" s="82"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="51"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="89"/>
-      <c r="B92" s="83"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="85"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="57"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="58"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="89"/>
-      <c r="B93" s="83"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="85"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="58"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="89"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="84"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="85"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="58"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="89"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="87"/>
-      <c r="K95" s="87"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="88"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="81"/>
-      <c r="L96" s="81"/>
-      <c r="M96" s="81"/>
-      <c r="N96" s="82"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
+      <c r="N96" s="51"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="91"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="87"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
-      <c r="K97" s="87"/>
-      <c r="L97" s="87"/>
-      <c r="M97" s="87"/>
-      <c r="N97" s="88"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="81"/>
-      <c r="I98" s="81"/>
-      <c r="J98" s="81"/>
-      <c r="K98" s="81"/>
-      <c r="L98" s="81"/>
-      <c r="M98" s="81"/>
-      <c r="N98" s="82"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="51"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="89"/>
-      <c r="B99" s="83"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="84"/>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84"/>
-      <c r="M99" s="84"/>
-      <c r="N99" s="85"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="58"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="89"/>
-      <c r="B100" s="83"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="84"/>
-      <c r="K100" s="84"/>
-      <c r="L100" s="84"/>
-      <c r="M100" s="84"/>
-      <c r="N100" s="85"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="58"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="89"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="87"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="87"/>
-      <c r="G101" s="87"/>
-      <c r="H101" s="87"/>
-      <c r="I101" s="87"/>
-      <c r="J101" s="87"/>
-      <c r="K101" s="87"/>
-      <c r="L101" s="87"/>
-      <c r="M101" s="87"/>
-      <c r="N101" s="88"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="B102" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
-      <c r="K102" s="81"/>
-      <c r="L102" s="81"/>
-      <c r="M102" s="81"/>
-      <c r="N102" s="82"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="51"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="89"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="84"/>
-      <c r="I103" s="84"/>
-      <c r="J103" s="84"/>
-      <c r="K103" s="84"/>
-      <c r="L103" s="84"/>
-      <c r="M103" s="84"/>
-      <c r="N103" s="85"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="58"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="89"/>
-      <c r="B104" s="86"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
-      <c r="N104" s="88"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="53"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="89" t="s">
+      <c r="A105" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="K105" s="81"/>
-      <c r="L105" s="81"/>
-      <c r="M105" s="81"/>
-      <c r="N105" s="82"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="51"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="89"/>
-      <c r="B106" s="86"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="88"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="80" t="s">
+      <c r="B107" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="81"/>
-      <c r="I107" s="81"/>
-      <c r="J107" s="81"/>
-      <c r="K107" s="81"/>
-      <c r="L107" s="81"/>
-      <c r="M107" s="81"/>
-      <c r="N107" s="82"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="51"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="89"/>
-      <c r="B108" s="83"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="84"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
-      <c r="I108" s="84"/>
-      <c r="J108" s="84"/>
-      <c r="K108" s="84"/>
-      <c r="L108" s="84"/>
-      <c r="M108" s="84"/>
-      <c r="N108" s="85"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="58"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="89"/>
-      <c r="B109" s="86"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="87"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="87"/>
-      <c r="I109" s="87"/>
-      <c r="J109" s="87"/>
-      <c r="K109" s="87"/>
-      <c r="L109" s="87"/>
-      <c r="M109" s="87"/>
-      <c r="N109" s="88"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="53"/>
+      <c r="L109" s="53"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="89">
+      <c r="A110" s="55">
         <v>5.3</v>
       </c>
-      <c r="B110" s="80" t="s">
+      <c r="B110" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="81"/>
-      <c r="K110" s="81"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="81"/>
-      <c r="N110" s="82"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="51"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="89"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="87"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="87"/>
-      <c r="F111" s="87"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="87"/>
-      <c r="I111" s="87"/>
-      <c r="J111" s="87"/>
-      <c r="K111" s="87"/>
-      <c r="L111" s="87"/>
-      <c r="M111" s="87"/>
-      <c r="N111" s="88"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="53"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="53"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="90">
+      <c r="A112" s="59">
         <v>5.4</v>
       </c>
-      <c r="B112" s="80" t="s">
+      <c r="B112" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="81"/>
-      <c r="D112" s="81"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
-      <c r="H112" s="81"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="81"/>
-      <c r="K112" s="81"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="81"/>
-      <c r="N112" s="82"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="50"/>
+      <c r="N112" s="51"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="91"/>
-      <c r="B113" s="86"/>
-      <c r="C113" s="87"/>
-      <c r="D113" s="87"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="87"/>
-      <c r="I113" s="87"/>
-      <c r="J113" s="87"/>
-      <c r="K113" s="87"/>
-      <c r="L113" s="87"/>
-      <c r="M113" s="87"/>
-      <c r="N113" s="88"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="53"/>
+      <c r="L113" s="53"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="89">
+      <c r="A114" s="55">
         <v>5.5</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B114" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81"/>
-      <c r="K114" s="81"/>
-      <c r="L114" s="81"/>
-      <c r="M114" s="81"/>
-      <c r="N114" s="82"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="50"/>
+      <c r="N114" s="51"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="89"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="84"/>
-      <c r="D115" s="84"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="84"/>
-      <c r="K115" s="84"/>
-      <c r="L115" s="84"/>
-      <c r="M115" s="84"/>
-      <c r="N115" s="85"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
+      <c r="L115" s="57"/>
+      <c r="M115" s="57"/>
+      <c r="N115" s="58"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="89"/>
-      <c r="B116" s="83"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
-      <c r="I116" s="84"/>
-      <c r="J116" s="84"/>
-      <c r="K116" s="84"/>
-      <c r="L116" s="84"/>
-      <c r="M116" s="84"/>
-      <c r="N116" s="85"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+      <c r="L116" s="57"/>
+      <c r="M116" s="57"/>
+      <c r="N116" s="58"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="89"/>
-      <c r="B117" s="83"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
-      <c r="K117" s="84"/>
-      <c r="L117" s="84"/>
-      <c r="M117" s="84"/>
-      <c r="N117" s="85"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="57"/>
+      <c r="L117" s="57"/>
+      <c r="M117" s="57"/>
+      <c r="N117" s="58"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="89"/>
-      <c r="B118" s="83"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="84"/>
-      <c r="L118" s="84"/>
-      <c r="M118" s="84"/>
-      <c r="N118" s="85"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="58"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="89"/>
-      <c r="B119" s="86"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="87"/>
-      <c r="I119" s="87"/>
-      <c r="J119" s="87"/>
-      <c r="K119" s="87"/>
-      <c r="L119" s="87"/>
-      <c r="M119" s="87"/>
-      <c r="N119" s="88"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="53"/>
+      <c r="K119" s="53"/>
+      <c r="L119" s="53"/>
+      <c r="M119" s="53"/>
+      <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="89">
+      <c r="A120" s="55">
         <v>5.6</v>
       </c>
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="81"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="81"/>
-      <c r="J120" s="81"/>
-      <c r="K120" s="81"/>
-      <c r="L120" s="81"/>
-      <c r="M120" s="81"/>
-      <c r="N120" s="82"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="50"/>
+      <c r="N120" s="51"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="89"/>
-      <c r="B121" s="86"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
-      <c r="G121" s="87"/>
-      <c r="H121" s="87"/>
-      <c r="I121" s="87"/>
-      <c r="J121" s="87"/>
-      <c r="K121" s="87"/>
-      <c r="L121" s="87"/>
-      <c r="M121" s="87"/>
-      <c r="N121" s="88"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="53"/>
+      <c r="K121" s="53"/>
+      <c r="L121" s="53"/>
+      <c r="M121" s="53"/>
+      <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3945,203 +3969,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="120" t="s">
+      <c r="A124" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="121"/>
-      <c r="C124" s="121"/>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
-      <c r="G124" s="121"/>
-      <c r="H124" s="121"/>
-      <c r="I124" s="121"/>
-      <c r="J124" s="121"/>
-      <c r="K124" s="121"/>
-      <c r="L124" s="121"/>
-      <c r="M124" s="121"/>
-      <c r="N124" s="122"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="47"/>
+      <c r="N124" s="48"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="114" t="s">
+      <c r="A125" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="114"/>
-      <c r="C125" s="110" t="s">
+      <c r="B125" s="40"/>
+      <c r="C125" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="110"/>
-      <c r="E125" s="110"/>
-      <c r="F125" s="110"/>
-      <c r="G125" s="110"/>
-      <c r="H125" s="110"/>
-      <c r="I125" s="110"/>
-      <c r="J125" s="110"/>
-      <c r="K125" s="110"/>
-      <c r="L125" s="110"/>
-      <c r="M125" s="110"/>
-      <c r="N125" s="110"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="114" t="s">
+      <c r="A126" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="114"/>
-      <c r="C126" s="110" t="s">
+      <c r="B126" s="40"/>
+      <c r="C126" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="110"/>
-      <c r="E126" s="110"/>
-      <c r="F126" s="110"/>
-      <c r="G126" s="110"/>
-      <c r="H126" s="110"/>
-      <c r="I126" s="110"/>
-      <c r="J126" s="110"/>
-      <c r="K126" s="110"/>
-      <c r="L126" s="110"/>
-      <c r="M126" s="110"/>
-      <c r="N126" s="110"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="114" t="s">
+      <c r="A127" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="114"/>
-      <c r="C127" s="110" t="s">
+      <c r="B127" s="40"/>
+      <c r="C127" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="110"/>
-      <c r="E127" s="110"/>
-      <c r="F127" s="110"/>
-      <c r="G127" s="110"/>
-      <c r="H127" s="110"/>
-      <c r="I127" s="110"/>
-      <c r="J127" s="110"/>
-      <c r="K127" s="110"/>
-      <c r="L127" s="110"/>
-      <c r="M127" s="110"/>
-      <c r="N127" s="110"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="114" t="s">
+      <c r="A128" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="110" t="s">
+      <c r="B128" s="40"/>
+      <c r="C128" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="110"/>
-      <c r="E128" s="110"/>
-      <c r="F128" s="110"/>
-      <c r="G128" s="110"/>
-      <c r="H128" s="110"/>
-      <c r="I128" s="110"/>
-      <c r="J128" s="110"/>
-      <c r="K128" s="110"/>
-      <c r="L128" s="110"/>
-      <c r="M128" s="110"/>
-      <c r="N128" s="110"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="115" t="s">
+      <c r="A129" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="116"/>
-      <c r="C129" s="116"/>
-      <c r="D129" s="116"/>
-      <c r="E129" s="116"/>
-      <c r="F129" s="116"/>
-      <c r="G129" s="116"/>
-      <c r="H129" s="116"/>
-      <c r="I129" s="116"/>
-      <c r="J129" s="116"/>
-      <c r="K129" s="116"/>
-      <c r="L129" s="116"/>
-      <c r="M129" s="116"/>
-      <c r="N129" s="117"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="43"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="118" t="s">
+      <c r="A130" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="119"/>
-      <c r="C130" s="110" t="s">
+      <c r="B130" s="45"/>
+      <c r="C130" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="110"/>
-      <c r="E130" s="110"/>
-      <c r="F130" s="110"/>
-      <c r="G130" s="110"/>
-      <c r="H130" s="110"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="110"/>
-      <c r="K130" s="110"/>
-      <c r="L130" s="110"/>
-      <c r="M130" s="110"/>
-      <c r="N130" s="110"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="36"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="111" t="s">
+      <c r="B131" s="35"/>
+      <c r="C131" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="112"/>
-      <c r="E131" s="112"/>
-      <c r="F131" s="112"/>
-      <c r="G131" s="112"/>
-      <c r="H131" s="112"/>
-      <c r="I131" s="112"/>
-      <c r="J131" s="112"/>
-      <c r="K131" s="112"/>
-      <c r="L131" s="112"/>
-      <c r="M131" s="112"/>
-      <c r="N131" s="113"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="38"/>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38"/>
+      <c r="M131" s="38"/>
+      <c r="N131" s="39"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="109" t="s">
+      <c r="A132" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="109"/>
-      <c r="C132" s="111" t="s">
+      <c r="B132" s="35"/>
+      <c r="C132" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="112"/>
-      <c r="E132" s="112"/>
-      <c r="F132" s="112"/>
-      <c r="G132" s="112"/>
-      <c r="H132" s="112"/>
-      <c r="I132" s="112"/>
-      <c r="J132" s="112"/>
-      <c r="K132" s="112"/>
-      <c r="L132" s="112"/>
-      <c r="M132" s="112"/>
-      <c r="N132" s="113"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="39"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="109" t="s">
+      <c r="A133" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="109"/>
-      <c r="C133" s="111" t="s">
+      <c r="B133" s="35"/>
+      <c r="C133" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="112"/>
-      <c r="E133" s="112"/>
-      <c r="F133" s="112"/>
-      <c r="G133" s="112"/>
-      <c r="H133" s="112"/>
-      <c r="I133" s="112"/>
-      <c r="J133" s="112"/>
-      <c r="K133" s="112"/>
-      <c r="L133" s="112"/>
-      <c r="M133" s="112"/>
-      <c r="N133" s="113"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4166,109 +4293,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -993,6 +993,237 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,231 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,42 +1695,42 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="123" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="123" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1749,43 +1749,43 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="123" t="s">
+      <c r="O7" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,20 +1847,23 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1871,20 +1874,23 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1895,368 +1901,371 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.4</v>
       </c>
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1.5</v>
       </c>
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="115" t="s">
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-    </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2.1</v>
       </c>
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.4</v>
       </c>
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.5</v>
       </c>
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="87"/>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="105" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="107">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="103"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="106"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="104"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2265,19 +2274,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2287,19 +2296,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="76"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2309,76 +2318,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="70"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="70"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2387,19 +2396,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2409,19 +2418,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="76"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2431,19 +2440,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2453,19 +2462,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="90"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2477,60 +2486,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="90"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="107">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="103"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="104"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2539,19 +2548,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="76"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2561,19 +2570,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="76"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2583,58 +2592,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="76"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="93">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="91"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="92"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2643,19 +2654,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="90"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
@@ -2667,19 +2678,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="76"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2689,19 +2700,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="76"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2711,19 +2722,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="76"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2733,38 +2744,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="76"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="87"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2773,19 +2784,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="90"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
@@ -2797,19 +2808,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="90"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
@@ -2821,19 +2832,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="76"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2845,19 +2856,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="76"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2867,76 +2878,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="76"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="73">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="77">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="70"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="73"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="70"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2945,19 +2956,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2977,16 +2988,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="34"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -2998,16 +3009,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="83">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="E68" s="84"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3019,21 +3030,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
-        <v>4/13</v>
-      </c>
-      <c r="E69" s="80"/>
-      <c r="F69" s="81" t="str">
+        <v>7/13</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
-        <v>11/38%</v>
-      </c>
-      <c r="G69" s="82"/>
+        <v>17/38%</v>
+      </c>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3075,882 +3086,882 @@
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
-      <c r="N72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="70"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="66"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="63"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="63"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="51"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="54"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="51"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="54"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="51"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="58"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="54"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="51"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="54"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="63"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="51"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="58"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="55"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="58"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="54"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="51"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="55"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="58"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="55"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="58"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="57"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="58"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="54"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="51"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="54"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="51"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="57"/>
-      <c r="M99" s="57"/>
-      <c r="N99" s="58"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="55"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="58"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="55"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="54"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="51"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="55"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="58"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="55"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="54"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="51"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="55"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="54"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="51"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="58"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="55"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="53"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="54"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="55">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="51"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="55"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="53"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="54"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="59">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="51"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="60"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="54"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="55">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="50"/>
-      <c r="M114" s="50"/>
-      <c r="N114" s="51"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="55"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="57"/>
-      <c r="M115" s="57"/>
-      <c r="N115" s="58"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="55"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-      <c r="L116" s="57"/>
-      <c r="M116" s="57"/>
-      <c r="N116" s="58"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="55"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="58"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="55"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
-      <c r="I118" s="57"/>
-      <c r="J118" s="57"/>
-      <c r="K118" s="57"/>
-      <c r="L118" s="57"/>
-      <c r="M118" s="57"/>
-      <c r="N118" s="58"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="55"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="53"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="54"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="55">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="50"/>
-      <c r="M120" s="50"/>
-      <c r="N120" s="51"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="55"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="54"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3969,282 +3980,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="47"/>
-      <c r="M124" s="47"/>
-      <c r="N124" s="48"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="36" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="36"/>
-      <c r="N125" s="36"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="36" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="36"/>
-      <c r="N126" s="36"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="36" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="36"/>
-      <c r="N127" s="36"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="40"/>
-      <c r="C128" s="36" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="36"/>
-      <c r="N128" s="36"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42"/>
-      <c r="M129" s="42"/>
-      <c r="N129" s="43"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="44" t="s">
+      <c r="A130" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="36" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="36"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="37" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38"/>
-      <c r="M131" s="38"/>
-      <c r="N131" s="39"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="35" t="s">
+      <c r="A132" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="37" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="39"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="37" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="39"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4269,30 +4225,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,270 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
       </c>
@@ -1874,19 +1874,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
       </c>
@@ -1901,19 +1901,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1923,19 +1923,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1945,38 +1945,38 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1985,19 +1985,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
@@ -2009,19 +2009,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="21" t="s">
         <v>122</v>
       </c>
@@ -2033,19 +2033,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
@@ -2060,19 +2060,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2082,19 +2082,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2104,19 +2104,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
@@ -2128,40 +2128,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2170,19 +2170,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2192,19 +2192,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2214,58 +2214,58 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="108">
         <v>0.05</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="46"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="104"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2274,19 +2274,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2296,19 +2296,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2318,76 +2318,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="78">
         <v>0.08</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2396,19 +2396,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2418,19 +2418,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2440,19 +2440,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2462,19 +2462,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2486,60 +2486,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="108">
         <v>0.02</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="46"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="47"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2548,19 +2548,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2570,19 +2570,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2592,60 +2592,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="94">
         <v>0.02</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="56" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="92" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="93"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2654,19 +2654,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
@@ -2678,19 +2678,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2700,19 +2700,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2722,19 +2722,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2744,38 +2744,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2784,19 +2784,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
@@ -2808,19 +2808,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
@@ -2832,19 +2832,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2856,19 +2856,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2878,76 +2878,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="53">
+      <c r="A62" s="74">
         <v>5.6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="78">
         <v>0.08</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2956,19 +2956,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2988,16 +2988,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="108">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3009,16 +3009,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="79">
+      <c r="B68" s="33"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="84">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
         <v>0.16999999999999998</v>
       </c>
-      <c r="E68" s="80"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3030,21 +3030,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75" t="str">
+      <c r="B69" s="33"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="80" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>7/13</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>17/38%</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3107,861 +3107,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="95"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="98"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="64"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="98"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="64"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="83"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="89"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="83"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="89"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="83"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="89"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="83"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="89"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
-      <c r="M86" s="97"/>
-      <c r="N86" s="98"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="64"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="86"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="83"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="86"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="86"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="89"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="83"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="89"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="83"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="86"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="86"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="88"/>
-      <c r="M101" s="88"/>
-      <c r="N101" s="89"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="86"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="89"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="83"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="83"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="86"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="89"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90">
+      <c r="A110" s="56">
         <v>5.3</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="83"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="89"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="60">
         <v>5.4</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="83"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="89"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="55"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90">
+      <c r="A114" s="56">
         <v>5.5</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="59"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="86"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="59"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="86"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="59"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="N118" s="86"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="59"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="89"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90">
+      <c r="A120" s="56">
         <v>5.6</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="83"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="88"/>
-      <c r="M121" s="88"/>
-      <c r="N121" s="89"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="55"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3980,203 +3980,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="123"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="49"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111" t="s">
+      <c r="B125" s="41"/>
+      <c r="C125" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="111"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="111"/>
-      <c r="N125" s="111"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="41"/>
+      <c r="C127" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="111"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="111"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="111"/>
-      <c r="N127" s="111"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
-      <c r="N128" s="111"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="117"/>
-      <c r="C129" s="117"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="117"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="117"/>
-      <c r="N129" s="118"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="44"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="120"/>
-      <c r="C130" s="111" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="110"/>
-      <c r="C131" s="112" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
-      <c r="J131" s="113"/>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
-      <c r="N131" s="114"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="110"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="113"/>
-      <c r="N132" s="114"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="110"/>
-      <c r="C133" s="112" t="s">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="114"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4201,109 +4304,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
       </c>
@@ -1874,19 +1874,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
       </c>
@@ -1901,19 +1901,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1923,19 +1923,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1945,38 +1945,38 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1985,19 +1985,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
@@ -2009,19 +2009,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>122</v>
       </c>
@@ -2033,19 +2033,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
@@ -2060,19 +2060,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2082,19 +2082,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2104,19 +2104,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
@@ -2128,40 +2128,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2170,19 +2170,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2192,19 +2192,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2214,58 +2214,58 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2274,19 +2274,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2296,19 +2296,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2318,76 +2318,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2396,19 +2396,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2418,19 +2418,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2440,19 +2440,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2462,19 +2462,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2486,60 +2486,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2548,19 +2548,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2570,19 +2570,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2592,60 +2592,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2654,19 +2654,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
@@ -2678,19 +2678,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2700,19 +2700,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2722,19 +2722,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2744,38 +2744,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2784,19 +2784,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
@@ -2808,19 +2808,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
@@ -2832,19 +2832,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2856,19 +2856,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2878,76 +2878,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2956,19 +2956,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2988,16 +2988,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3009,16 +3009,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
         <v>0.16999999999999998</v>
       </c>
-      <c r="E68" s="85"/>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3030,21 +3030,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>7/13</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>17/38%</v>
       </c>
-      <c r="G69" s="83"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3107,861 +3107,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3980,282 +3980,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4280,30 +4225,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -996,6 +996,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,270 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
       </c>
@@ -1874,19 +1874,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
       </c>
@@ -1901,19 +1901,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1923,19 +1923,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1945,38 +1945,38 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1985,19 +1985,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
@@ -2009,20 +2009,23 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2033,19 +2036,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
@@ -2060,19 +2063,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2082,19 +2085,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2104,19 +2107,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
@@ -2128,40 +2131,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2170,19 +2173,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2192,19 +2195,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2214,58 +2217,58 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="108">
         <v>0.05</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="46"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="104"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2274,19 +2277,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2296,19 +2299,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2318,76 +2321,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="78">
         <v>0.08</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2396,19 +2399,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2418,19 +2421,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2440,19 +2443,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2462,19 +2465,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2486,60 +2489,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="108">
         <v>0.02</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="46"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="47"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2548,19 +2551,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2570,19 +2573,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2592,60 +2595,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="94">
         <v>0.02</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="56" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="92" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="93"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2654,19 +2657,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
@@ -2678,19 +2681,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2700,19 +2703,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2722,19 +2725,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2744,38 +2747,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2784,19 +2787,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
@@ -2808,19 +2811,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
@@ -2832,19 +2835,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2856,19 +2859,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2878,76 +2881,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="53">
+      <c r="A62" s="74">
         <v>5.6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="78">
         <v>0.08</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2956,19 +2959,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2988,16 +2991,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="108">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3009,16 +3012,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="79">
+      <c r="B68" s="33"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="84">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="E68" s="80"/>
+        <v>0.19</v>
+      </c>
+      <c r="E68" s="85"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3030,21 +3033,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75" t="str">
+      <c r="B69" s="33"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="80" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>7/13</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>17/38%</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3107,861 +3110,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="95"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="98"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="64"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="98"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="64"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="83"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="89"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="83"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="89"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="83"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="89"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="83"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="89"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
-      <c r="M86" s="97"/>
-      <c r="N86" s="98"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="64"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="86"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="83"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="86"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="86"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="89"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="83"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="89"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="83"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="86"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="86"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="88"/>
-      <c r="M101" s="88"/>
-      <c r="N101" s="89"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="86"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="89"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="83"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="83"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="86"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="89"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90">
+      <c r="A110" s="56">
         <v>5.3</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="83"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="89"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="60">
         <v>5.4</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="83"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="89"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="55"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90">
+      <c r="A114" s="56">
         <v>5.5</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="59"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="86"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="59"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="86"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="59"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="N118" s="86"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="59"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="89"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90">
+      <c r="A120" s="56">
         <v>5.6</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="83"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="88"/>
-      <c r="M121" s="88"/>
-      <c r="N121" s="89"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="55"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3980,203 +3983,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="123"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="49"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111" t="s">
+      <c r="B125" s="41"/>
+      <c r="C125" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="111"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="111"/>
-      <c r="N125" s="111"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="41"/>
+      <c r="C127" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="111"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="111"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="111"/>
-      <c r="N127" s="111"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
-      <c r="N128" s="111"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="117"/>
-      <c r="C129" s="117"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="117"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="117"/>
-      <c r="N129" s="118"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="44"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="120"/>
-      <c r="C130" s="111" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="110"/>
-      <c r="C131" s="112" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
-      <c r="J131" s="113"/>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
-      <c r="N131" s="114"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="110"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="113"/>
-      <c r="N132" s="114"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="110"/>
-      <c r="C133" s="112" t="s">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="114"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4201,109 +4307,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -996,6 +996,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
       </c>
@@ -1874,19 +1874,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
       </c>
@@ -1901,19 +1901,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1923,19 +1923,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1945,38 +1945,38 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1985,19 +1985,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
@@ -2009,19 +2009,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>123</v>
       </c>
@@ -2036,19 +2036,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
@@ -2063,19 +2063,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2085,19 +2085,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2107,19 +2107,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
@@ -2131,40 +2131,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2173,19 +2173,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2195,19 +2195,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2217,58 +2217,58 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2277,19 +2277,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2299,19 +2299,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2321,76 +2321,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2399,19 +2399,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2421,19 +2421,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2443,19 +2443,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2465,19 +2465,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2489,60 +2489,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2551,19 +2551,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2573,19 +2573,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2595,362 +2595,365 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21"/>
     </row>
-    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
-    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
-    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+    <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
-    </row>
-    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
+    </row>
+    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.2</v>
       </c>
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5.3</v>
       </c>
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>5.4</v>
       </c>
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5.5</v>
       </c>
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
-    </row>
-    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
+    </row>
+    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2959,19 +2962,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2991,16 +2994,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3012,16 +3015,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.19</v>
-      </c>
-      <c r="E68" s="85"/>
+        <v>0.21</v>
+      </c>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3033,21 +3036,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
-        <v>7/13</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+        <v>8/13</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
-        <v>17/38%</v>
-      </c>
-      <c r="G69" s="83"/>
+        <v>19/38%</v>
+      </c>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3110,861 +3113,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3983,282 +3986,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4283,30 +4231,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -996,6 +996,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,270 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,24 +1847,21 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="O14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1874,24 +1871,21 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="O15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1901,374 +1895,370 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.4</v>
       </c>
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1.5</v>
       </c>
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+    </row>
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2.1</v>
       </c>
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="O22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.4</v>
       </c>
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.5</v>
       </c>
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-    </row>
-    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
+    </row>
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="108">
         <v>0.05</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="46"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="104"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2277,19 +2267,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2299,19 +2289,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2321,76 +2311,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="78">
         <v>0.08</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2399,19 +2389,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2421,19 +2411,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2443,19 +2433,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2465,19 +2455,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2489,60 +2479,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="108">
         <v>0.02</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="46"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="47"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2551,19 +2541,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2573,19 +2563,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2595,365 +2585,362 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="21"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="94">
         <v>0.02</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="56" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="O49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="93"/>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="21"/>
     </row>
-    <row r="53" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="21"/>
     </row>
-    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
       <c r="N55" s="21"/>
     </row>
-    <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
+    </row>
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.2</v>
       </c>
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5.3</v>
       </c>
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>5.4</v>
       </c>
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5.5</v>
       </c>
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
       <c r="N61" s="21"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="53">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="74">
         <v>5.6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="78">
         <v>0.08</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
-    </row>
-    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="71"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="71"/>
+    </row>
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2962,19 +2949,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2994,16 +2981,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="108">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3015,16 +3002,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="79">
+      <c r="B68" s="33"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="84">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.21</v>
-      </c>
-      <c r="E68" s="80"/>
+        <v>0.26</v>
+      </c>
+      <c r="E68" s="85"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3036,21 +3023,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75" t="str">
+      <c r="B69" s="33"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="80" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>8/13</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>19/38%</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3113,861 +3100,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="95"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="98"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="64"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="98"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="64"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="83"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="89"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="83"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="89"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="83"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="89"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="83"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="89"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
-      <c r="M86" s="97"/>
-      <c r="N86" s="98"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="64"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="86"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="83"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="86"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="86"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="89"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="83"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="89"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="83"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="86"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="86"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="88"/>
-      <c r="M101" s="88"/>
-      <c r="N101" s="89"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="86"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="89"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="83"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="83"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="86"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="89"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90">
+      <c r="A110" s="56">
         <v>5.3</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="83"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="89"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="60">
         <v>5.4</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="83"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="89"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="55"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90">
+      <c r="A114" s="56">
         <v>5.5</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="59"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="86"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="59"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="86"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="59"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="N118" s="86"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="59"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="89"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90">
+      <c r="A120" s="56">
         <v>5.6</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="83"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="88"/>
-      <c r="M121" s="88"/>
-      <c r="N121" s="89"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="55"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3986,203 +3973,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="123"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="49"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111" t="s">
+      <c r="B125" s="41"/>
+      <c r="C125" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="111"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="111"/>
-      <c r="N125" s="111"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="41"/>
+      <c r="C127" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="111"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="111"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="111"/>
-      <c r="N127" s="111"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
-      <c r="N128" s="111"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="117"/>
-      <c r="C129" s="117"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="117"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="117"/>
-      <c r="N129" s="118"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="44"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="120"/>
-      <c r="C130" s="111" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="110"/>
-      <c r="C131" s="112" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
-      <c r="J131" s="113"/>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
-      <c r="N131" s="114"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="110"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="113"/>
-      <c r="N132" s="114"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="110"/>
-      <c r="C133" s="112" t="s">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="114"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4207,109 +4297,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Links with pages</t>
   </si>
 </sst>
 </file>
@@ -996,6 +999,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1254,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1632,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1698,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>120</v>
       </c>
@@ -1754,38 +1757,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1808,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1850,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>123</v>
       </c>
@@ -1871,19 +1874,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>123</v>
       </c>
@@ -1895,370 +1898,388 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.4</v>
       </c>
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1.5</v>
       </c>
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-    </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2.1</v>
       </c>
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.4</v>
       </c>
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.5</v>
       </c>
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2267,19 +2288,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2289,19 +2310,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2311,76 +2332,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2389,19 +2410,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2411,19 +2432,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2433,19 +2454,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2455,19 +2476,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2479,60 +2500,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2541,19 +2562,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2563,19 +2584,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2585,60 +2606,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2647,19 +2668,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>123</v>
       </c>
@@ -2671,19 +2692,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2693,19 +2714,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2715,19 +2736,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2737,38 +2758,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2777,19 +2798,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>123</v>
       </c>
@@ -2801,19 +2822,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>122</v>
       </c>
@@ -2825,19 +2846,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2849,19 +2870,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2871,76 +2892,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2949,19 +2970,19 @@
       <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2981,16 +3002,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3002,16 +3023,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.26</v>
-      </c>
-      <c r="E68" s="85"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3023,21 +3044,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
-        <v>8/13</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+        <v>10/13</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
-        <v>19/38%</v>
-      </c>
-      <c r="G69" s="83"/>
+        <v>29/38%</v>
+      </c>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3100,861 +3121,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3973,282 +3994,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4273,30 +4239,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:M41"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>119</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1895,19 +1895,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1917,19 +1917,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -1939,40 +1939,40 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1981,19 +1981,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2005,19 +2005,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>121</v>
       </c>
@@ -2032,19 +2032,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>122</v>
       </c>
@@ -2056,19 +2056,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2078,19 +2078,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2100,19 +2100,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>122</v>
       </c>
@@ -2124,40 +2124,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2166,19 +2166,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
@@ -2193,19 +2193,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
@@ -2220,19 +2220,19 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12" t="s">
         <v>122</v>
       </c>
@@ -2241,42 +2241,42 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2285,19 +2285,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2307,19 +2307,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2329,76 +2329,76 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2407,19 +2407,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2429,19 +2429,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2451,19 +2451,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2473,19 +2473,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2500,19 +2500,19 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
@@ -2521,42 +2521,42 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2565,19 +2565,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2587,19 +2587,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2609,60 +2609,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2671,19 +2671,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>122</v>
       </c>
@@ -2695,19 +2695,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2717,19 +2717,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2739,19 +2739,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2761,38 +2761,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2801,19 +2801,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>122</v>
       </c>
@@ -2825,19 +2825,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
@@ -2849,19 +2849,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>121</v>
       </c>
@@ -2873,19 +2873,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2895,76 +2895,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2973,19 +2973,19 @@
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3005,16 +3005,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3026,16 +3026,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="E68" s="85"/>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3047,21 +3047,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>12/13</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>33/38%</v>
       </c>
-      <c r="G69" s="83"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3124,861 +3124,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -3997,282 +3997,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4297,30 +4242,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>E-Commerce Project Marking Guide</t>
   </si>
@@ -471,7 +471,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Links with pages</t>
+    <t>Y Links with pages</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:N83"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,7 +1908,12 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -1930,7 +1935,12 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2182,9 +2192,6 @@
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O28" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -2209,9 +2216,6 @@
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O29" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -2234,7 +2238,7 @@
       <c r="L30" s="31"/>
       <c r="M30" s="32"/>
       <c r="N30" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O30" t="s">
         <v>121</v>
@@ -2260,7 +2264,12 @@
       <c r="K31" s="41"/>
       <c r="L31" s="41"/>
       <c r="M31" s="42"/>
-      <c r="N31" s="46"/>
+      <c r="N31" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
@@ -2298,7 +2307,12 @@
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -2320,7 +2334,12 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="21"/>
+      <c r="N34" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -2342,7 +2361,12 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
@@ -2364,7 +2388,12 @@
       <c r="K36" s="54"/>
       <c r="L36" s="54"/>
       <c r="M36" s="54"/>
-      <c r="N36" s="55"/>
+      <c r="N36" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="53"/>
@@ -2489,9 +2518,6 @@
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O42" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="43" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -2515,9 +2541,6 @@
       <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="O43" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2624,7 +2647,7 @@
       <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>52</v>
       </c>
@@ -2648,7 +2671,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="59"/>
       <c r="C50" s="65"/>
@@ -2664,7 +2687,7 @@
       <c r="M50" s="67"/>
       <c r="N50" s="57"/>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2688,7 +2711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -2708,9 +2731,14 @@
       <c r="K52" s="28"/>
       <c r="L52" s="28"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -2730,9 +2758,11 @@
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N53" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
@@ -2754,7 +2784,7 @@
       <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
-    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2806,7 @@
       <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
-    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>63</v>
       </c>
@@ -2794,7 +2824,7 @@
       <c r="M56" s="38"/>
       <c r="N56" s="39"/>
     </row>
-    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -2818,7 +2848,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.2</v>
       </c>
@@ -2841,8 +2871,11 @@
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5.3</v>
       </c>
@@ -2865,8 +2898,11 @@
       <c r="N59" s="21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>5.4</v>
       </c>
@@ -2888,7 +2924,7 @@
       <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5.5</v>
       </c>
@@ -2910,7 +2946,7 @@
       <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="53">
         <v>5.6</v>
       </c>
@@ -2932,7 +2968,7 @@
       <c r="M62" s="54"/>
       <c r="N62" s="55"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="52"/>
       <c r="C63" s="54"/>
@@ -2948,7 +2984,7 @@
       <c r="M63" s="54"/>
       <c r="N63" s="55"/>
     </row>
-    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="71" t="s">
         <v>70</v>
       </c>
@@ -3033,7 +3069,7 @@
       <c r="C68" s="74"/>
       <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.45000000000000007</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="E68" s="80"/>
       <c r="F68" s="9"/>
@@ -3054,12 +3090,12 @@
       <c r="C69" s="74"/>
       <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
-        <v>12/13</v>
+        <v>11/13</v>
       </c>
       <c r="E69" s="76"/>
       <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
-        <v>33/38%</v>
+        <v>28/38%</v>
       </c>
       <c r="G69" s="78"/>
       <c r="H69" s="20"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,270 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="22" t="s">
         <v>119</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1895,19 +1895,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="21" t="s">
         <v>121</v>
       </c>
@@ -1922,21 +1922,21 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
         <v>121</v>
@@ -1949,40 +1949,40 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1991,19 +1991,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2015,19 +2015,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="21" t="s">
         <v>121</v>
       </c>
@@ -2042,19 +2042,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="12" t="s">
         <v>122</v>
       </c>
@@ -2066,19 +2066,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2088,19 +2088,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2110,19 +2110,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="12" t="s">
         <v>122</v>
       </c>
@@ -2134,40 +2134,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2176,19 +2176,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
@@ -2200,19 +2200,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
@@ -2224,19 +2224,19 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="12" t="s">
         <v>121</v>
       </c>
@@ -2245,26 +2245,26 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="108">
         <v>0.05</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="46" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="104" t="s">
         <v>121</v>
       </c>
       <c r="O31" t="s">
@@ -2272,20 +2272,20 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2294,19 +2294,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="21" t="s">
         <v>121</v>
       </c>
@@ -2321,19 +2321,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="21" t="s">
         <v>121</v>
       </c>
@@ -2348,19 +2348,19 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="21" t="s">
         <v>121</v>
       </c>
@@ -2369,26 +2369,26 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="78">
         <v>0.08</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55" t="s">
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="71" t="s">
         <v>121</v>
       </c>
       <c r="O36" t="s">
@@ -2396,38 +2396,38 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2436,19 +2436,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2458,19 +2458,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2480,19 +2480,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2502,19 +2502,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2526,60 +2526,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="108">
         <v>0.02</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="46"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="47"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2588,19 +2588,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2610,19 +2610,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2632,60 +2632,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="94">
         <v>0.02</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="56" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="92" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="93"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2694,19 +2694,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="12" t="s">
         <v>122</v>
       </c>
@@ -2718,19 +2718,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="21" t="s">
         <v>121</v>
       </c>
@@ -2745,19 +2745,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13" t="s">
         <v>122</v>
       </c>
@@ -2769,19 +2769,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2791,38 +2791,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
     </row>
     <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2831,19 +2831,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="12" t="s">
         <v>122</v>
       </c>
@@ -2855,19 +2855,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
@@ -2882,19 +2882,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
       <c r="N59" s="21" t="s">
         <v>121</v>
       </c>
@@ -2909,19 +2909,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2931,76 +2931,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="53">
+      <c r="A62" s="74">
         <v>5.6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="78">
         <v>0.08</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -3009,19 +3009,19 @@
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3041,16 +3041,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="108">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3062,16 +3062,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="79">
+      <c r="B68" s="33"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="84">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.4200000000000001</v>
-      </c>
-      <c r="E68" s="80"/>
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="E68" s="85"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3083,21 +3083,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75" t="str">
+      <c r="B69" s="33"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="80" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>11/13</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>28/38%</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3160,861 +3160,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="95"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="98"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="64"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="98"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="64"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="83"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="89"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="83"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="89"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="83"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="89"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="83"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="89"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
-      <c r="M86" s="97"/>
-      <c r="N86" s="98"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="64"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="86"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="83"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="86"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="86"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="89"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="83"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="89"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="83"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="86"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="86"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="88"/>
-      <c r="M101" s="88"/>
-      <c r="N101" s="89"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="86"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="89"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="83"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="83"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="86"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="89"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90">
+      <c r="A110" s="56">
         <v>5.3</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="83"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="89"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="60">
         <v>5.4</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="83"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="89"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="55"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90">
+      <c r="A114" s="56">
         <v>5.5</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="59"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="86"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="59"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="86"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="59"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="N118" s="86"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="59"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="89"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90">
+      <c r="A120" s="56">
         <v>5.6</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="83"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="88"/>
-      <c r="M121" s="88"/>
-      <c r="N121" s="89"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="55"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -4033,203 +4033,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="123"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="49"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111" t="s">
+      <c r="B125" s="41"/>
+      <c r="C125" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="111"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="111"/>
-      <c r="N125" s="111"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="41"/>
+      <c r="C127" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="111"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="111"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="111"/>
-      <c r="N127" s="111"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
-      <c r="N128" s="111"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="117"/>
-      <c r="C129" s="117"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="117"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="117"/>
-      <c r="N129" s="118"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="44"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="120"/>
-      <c r="C130" s="111" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="110"/>
-      <c r="C131" s="112" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
-      <c r="J131" s="113"/>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
-      <c r="N131" s="114"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="110"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="113"/>
-      <c r="N132" s="114"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="110"/>
-      <c r="C133" s="112" t="s">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="114"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4254,109 +4357,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:N74"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>119</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1895,19 +1895,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21" t="s">
         <v>121</v>
       </c>
@@ -1922,19 +1922,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21" t="s">
         <v>122</v>
       </c>
@@ -1949,40 +1949,40 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1991,19 +1991,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2015,19 +2015,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>121</v>
       </c>
@@ -2042,19 +2042,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>122</v>
       </c>
@@ -2066,19 +2066,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2088,19 +2088,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2110,19 +2110,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>122</v>
       </c>
@@ -2134,40 +2134,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2176,19 +2176,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
@@ -2200,19 +2200,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
@@ -2224,19 +2224,19 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12" t="s">
         <v>121</v>
       </c>
@@ -2245,26 +2245,26 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46" t="s">
         <v>121</v>
       </c>
       <c r="O31" t="s">
@@ -2272,20 +2272,20 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2294,19 +2294,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21" t="s">
         <v>121</v>
       </c>
@@ -2321,19 +2321,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21" t="s">
         <v>121</v>
       </c>
@@ -2348,19 +2348,19 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21" t="s">
         <v>121</v>
       </c>
@@ -2369,26 +2369,26 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55" t="s">
         <v>121</v>
       </c>
       <c r="O36" t="s">
@@ -2396,38 +2396,38 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2436,19 +2436,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2458,19 +2458,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2480,19 +2480,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2502,19 +2502,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2526,60 +2526,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2588,19 +2588,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2610,19 +2610,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2632,60 +2632,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2694,19 +2694,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>122</v>
       </c>
@@ -2718,19 +2718,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21" t="s">
         <v>121</v>
       </c>
@@ -2745,19 +2745,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13" t="s">
         <v>122</v>
       </c>
@@ -2769,19 +2769,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2791,38 +2791,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2831,19 +2831,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>122</v>
       </c>
@@ -2855,19 +2855,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
@@ -2882,21 +2882,21 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O59" t="s">
         <v>121</v>
@@ -2909,19 +2909,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2931,76 +2931,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -3009,19 +3009,19 @@
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3041,16 +3041,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3062,16 +3062,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.44000000000000011</v>
-      </c>
-      <c r="E68" s="85"/>
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3083,21 +3083,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>11/13</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>28/38%</v>
       </c>
-      <c r="G69" s="83"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3160,861 +3160,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -4033,282 +4033,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4333,30 +4278,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,288 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,270 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="22" t="s">
         <v>119</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1895,19 +1895,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="21" t="s">
         <v>121</v>
       </c>
@@ -1922,19 +1922,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="21" t="s">
         <v>122</v>
       </c>
@@ -1949,40 +1949,40 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1991,19 +1991,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2015,19 +2015,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="21" t="s">
         <v>121</v>
       </c>
@@ -2042,19 +2042,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="12" t="s">
         <v>122</v>
       </c>
@@ -2066,19 +2066,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2088,19 +2088,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2110,19 +2110,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="12" t="s">
         <v>122</v>
       </c>
@@ -2134,40 +2134,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2176,19 +2176,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
@@ -2200,19 +2200,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
@@ -2224,19 +2224,19 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="12" t="s">
         <v>121</v>
       </c>
@@ -2245,26 +2245,26 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="108">
         <v>0.05</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="46" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="104" t="s">
         <v>121</v>
       </c>
       <c r="O31" t="s">
@@ -2272,20 +2272,20 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2294,19 +2294,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="21" t="s">
         <v>121</v>
       </c>
@@ -2321,19 +2321,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="21" t="s">
         <v>121</v>
       </c>
@@ -2348,19 +2348,19 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="21" t="s">
         <v>121</v>
       </c>
@@ -2369,26 +2369,26 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="78">
         <v>0.08</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="55" t="s">
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="71" t="s">
         <v>121</v>
       </c>
       <c r="O36" t="s">
@@ -2396,38 +2396,38 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
     </row>
     <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2436,19 +2436,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2458,19 +2458,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2480,19 +2480,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2502,19 +2502,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2526,60 +2526,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="108">
         <v>0.02</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="46"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="47"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2588,19 +2588,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2610,19 +2610,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2632,60 +2632,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="94">
         <v>0.02</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="56" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="92" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="57"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="93"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2694,19 +2694,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="12" t="s">
         <v>122</v>
       </c>
@@ -2718,19 +2718,19 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="21" t="s">
         <v>121</v>
       </c>
@@ -2745,19 +2745,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13" t="s">
         <v>122</v>
       </c>
@@ -2769,19 +2769,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2791,38 +2791,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
     </row>
     <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2831,19 +2831,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="12" t="s">
         <v>122</v>
       </c>
@@ -2855,19 +2855,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
@@ -2882,19 +2882,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2909,19 +2909,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2931,76 +2931,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="53">
+      <c r="A62" s="74">
         <v>5.6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="78">
         <v>0.08</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -3009,19 +3009,19 @@
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3041,16 +3041,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="108">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="109"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3062,16 +3062,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="79">
+      <c r="B68" s="33"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="84">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
         <v>0.4900000000000001</v>
       </c>
-      <c r="E68" s="80"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3083,21 +3083,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75" t="str">
+      <c r="B69" s="33"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="80" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
         <v>11/13</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
         <v>28/38%</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3160,861 +3160,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="95"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="98"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="64"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="98"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="64"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="83"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="89"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="83"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="90"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="89"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="83"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="86"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="88"/>
-      <c r="M83" s="88"/>
-      <c r="N83" s="89"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="83"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="88"/>
-      <c r="N85" s="89"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
-      <c r="M86" s="97"/>
-      <c r="N86" s="98"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="64"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="83"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="86"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="83"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="86"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="86"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="90"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="86"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="88"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="89"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="83"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="92"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="89"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="83"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="90"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="86"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="86"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="90"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="88"/>
-      <c r="M101" s="88"/>
-      <c r="N101" s="89"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="83"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="86"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="90"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="89"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="83"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="89"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="83"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="86"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="90"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="89"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90">
+      <c r="A110" s="56">
         <v>5.3</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="83"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="88"/>
-      <c r="M111" s="88"/>
-      <c r="N111" s="89"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="91">
+      <c r="A112" s="60">
         <v>5.4</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="83"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="89"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="55"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="90">
+      <c r="A114" s="56">
         <v>5.5</v>
       </c>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="86"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="58"/>
+      <c r="N115" s="59"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="86"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="59"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="86"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+      <c r="N117" s="59"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="N118" s="86"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="59"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="89"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="90">
+      <c r="A120" s="56">
         <v>5.6</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82"/>
-      <c r="N120" s="83"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="88"/>
-      <c r="M121" s="88"/>
-      <c r="N121" s="89"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="55"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -4033,203 +4033,306 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
-      <c r="N124" s="123"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="49"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="111" t="s">
+      <c r="B125" s="41"/>
+      <c r="C125" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="111"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="111"/>
-      <c r="M125" s="111"/>
-      <c r="N125" s="111"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="115"/>
-      <c r="C126" s="111" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="41"/>
+      <c r="C127" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="111"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="111"/>
-      <c r="L127" s="111"/>
-      <c r="M127" s="111"/>
-      <c r="N127" s="111"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="115"/>
-      <c r="C128" s="111" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="111"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
-      <c r="N128" s="111"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="117"/>
-      <c r="C129" s="117"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="117"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="117"/>
-      <c r="M129" s="117"/>
-      <c r="N129" s="118"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="44"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="120"/>
-      <c r="C130" s="111" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
-      <c r="N130" s="111"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="110"/>
-      <c r="C131" s="112" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
-      <c r="J131" s="113"/>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
-      <c r="N131" s="114"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="110"/>
-      <c r="C132" s="112" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="113"/>
-      <c r="K132" s="113"/>
-      <c r="L132" s="113"/>
-      <c r="M132" s="113"/>
-      <c r="N132" s="114"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="110"/>
-      <c r="C133" s="112" t="s">
+      <c r="B133" s="36"/>
+      <c r="C133" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="113"/>
-      <c r="K133" s="113"/>
-      <c r="L133" s="113"/>
-      <c r="M133" s="113"/>
-      <c r="N133" s="114"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B105:N106"/>
+    <mergeCell ref="B102:N104"/>
+    <mergeCell ref="B78:N80"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:N113"/>
+    <mergeCell ref="B114:N119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B107:N109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B110:N111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B96:N97"/>
+    <mergeCell ref="B98:N101"/>
+    <mergeCell ref="B91:N95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:N85"/>
+    <mergeCell ref="A87:A90"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A5:N6"/>
     <mergeCell ref="A8:N9"/>
@@ -4254,109 +4357,6 @@
     <mergeCell ref="C126:N126"/>
     <mergeCell ref="C127:N127"/>
     <mergeCell ref="B120:N121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B105:N106"/>
-    <mergeCell ref="B102:N104"/>
-    <mergeCell ref="B78:N80"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:N113"/>
-    <mergeCell ref="B114:N119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B107:N109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B110:N111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B96:N97"/>
-    <mergeCell ref="B98:N101"/>
-    <mergeCell ref="B91:N95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:N85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project Marking Guide Template.xlsx
+++ b/Project Marking Guide Template.xlsx
@@ -996,6 +996,234 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,12 +1251,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,228 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,54 +1629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -1695,41 +1695,41 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
       <c r="O6" s="22" t="s">
         <v>119</v>
       </c>
@@ -1754,38 +1754,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1847,19 +1847,19 @@
       <c r="B14" s="17">
         <v>0.02</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1895,19 +1895,19 @@
       <c r="B16" s="19">
         <v>0.02</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="21" t="s">
         <v>121</v>
       </c>
@@ -1922,19 +1922,19 @@
       <c r="B17" s="19">
         <v>0.02</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="21" t="s">
         <v>122</v>
       </c>
@@ -1949,40 +1949,40 @@
       <c r="B18" s="19">
         <v>0.02</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1991,19 +1991,19 @@
       <c r="B20" s="17">
         <v>0.02</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="12" t="s">
         <v>122</v>
       </c>
@@ -2015,19 +2015,19 @@
       <c r="B21" s="19">
         <v>0.02</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="21" t="s">
         <v>121</v>
       </c>
@@ -2042,19 +2042,19 @@
       <c r="B22" s="18">
         <v>0.02</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="12" t="s">
         <v>122</v>
       </c>
@@ -2066,19 +2066,19 @@
       <c r="B23" s="19">
         <v>0.02</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2088,19 +2088,19 @@
       <c r="B24" s="19">
         <v>0.02</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2110,19 +2110,19 @@
       <c r="B25" s="18">
         <v>0.05</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="12" t="s">
         <v>122</v>
       </c>
@@ -2134,40 +2134,40 @@
       <c r="B26" s="19">
         <v>0.05</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2176,19 +2176,19 @@
       <c r="B28" s="18">
         <v>0.05</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="12" t="s">
         <v>122</v>
       </c>
@@ -2200,19 +2200,19 @@
       <c r="B29" s="19">
         <v>0.05</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="21" t="s">
         <v>122</v>
       </c>
@@ -2224,47 +2224,47 @@
       <c r="B30" s="18">
         <v>0.05</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="48">
         <v>0.05</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="104" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="46" t="s">
         <v>121</v>
       </c>
       <c r="O31" t="s">
@@ -2272,20 +2272,20 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -2294,19 +2294,19 @@
       <c r="B33" s="19">
         <v>0.05</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="21" t="s">
         <v>121</v>
       </c>
@@ -2321,19 +2321,19 @@
       <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="21" t="s">
         <v>121</v>
       </c>
@@ -2348,19 +2348,19 @@
       <c r="B35" s="19">
         <v>0.02</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="21" t="s">
         <v>121</v>
       </c>
@@ -2369,26 +2369,26 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="52">
         <v>0.08</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="71" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55" t="s">
         <v>121</v>
       </c>
       <c r="O36" t="s">
@@ -2396,38 +2396,38 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="71"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -2436,19 +2436,19 @@
       <c r="B39" s="19">
         <v>0.02</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2458,19 +2458,19 @@
       <c r="B40" s="19">
         <v>0.02</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2480,19 +2480,19 @@
       <c r="B41" s="19">
         <v>0.02</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2502,19 +2502,19 @@
       <c r="B42" s="18">
         <v>0.02</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="12" t="s">
         <v>122</v>
       </c>
@@ -2526,60 +2526,60 @@
       <c r="B43" s="18">
         <v>0.02</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="48">
         <v>0.02</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="104"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="105"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2588,19 +2588,19 @@
       <c r="B46" s="19">
         <v>0.02</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2610,19 +2610,19 @@
       <c r="B47" s="19">
         <v>0.02</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2632,60 +2632,60 @@
       <c r="B48" s="19">
         <v>0.02</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="94">
+      <c r="B49" s="58">
         <v>0.02</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="92" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="56" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="93"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2694,19 +2694,19 @@
       <c r="B51" s="18">
         <v>0.02</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="12" t="s">
         <v>122</v>
       </c>
@@ -2718,21 +2718,21 @@
       <c r="B52" s="19">
         <v>0.02</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O52" t="s">
         <v>121</v>
@@ -2745,19 +2745,19 @@
       <c r="B53" s="19">
         <v>0.02</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="13" t="s">
         <v>122</v>
       </c>
@@ -2769,19 +2769,19 @@
       <c r="B54" s="19">
         <v>0.02</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2791,38 +2791,38 @@
       <c r="B55" s="19">
         <v>0.05</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2831,19 +2831,19 @@
       <c r="B57" s="18">
         <v>0.02</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="91"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12" t="s">
         <v>122</v>
       </c>
@@ -2855,19 +2855,19 @@
       <c r="B58" s="18">
         <v>0.05</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="91"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="12" t="s">
         <v>121</v>
       </c>
@@ -2882,19 +2882,19 @@
       <c r="B59" s="19">
         <v>0.05</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="21" t="s">
         <v>122</v>
       </c>
@@ -2909,19 +2909,19 @@
       <c r="B60" s="19">
         <v>0.05</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.3">
@@ -2931,76 +2931,76 @@
       <c r="B61" s="19">
         <v>0.08</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="77"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="74">
+      <c r="A62" s="53">
         <v>5.6</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="52">
         <v>0.08</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="71"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -3009,19 +3009,19 @@
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3041,16 +3041,16 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34">
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="108">
         <f>B14+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26+B28+B29+B30+B31+B33+B34+B35+B36+B39+B40+B41+B42+B43+B44+B46+B47+B48+B49+B51+B52+B53+B54+B55+B57+B58+B59+B60+B61+B62</f>
         <v>1.3300000000000005</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3062,16 +3062,16 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="84">
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="79">
         <f ca="1">SUMIF(N14:N63, "X", B14:B18)</f>
-        <v>0.4900000000000001</v>
-      </c>
-      <c r="E68" s="85"/>
+        <v>0.56000000000000016</v>
+      </c>
+      <c r="E68" s="80"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3083,21 +3083,21 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="80" t="str">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75" t="str">
         <f>COUNTIF(N14, "X" ) + COUNTIF(N15, "X") + COUNTIF(N20, "X") + COUNTIF(N22, "X") + COUNTIF(N25, "X") + COUNTIF(N28, "X") + COUNTIF(N30, "X") + COUNTIF(N42, "X") + COUNTIF(N43, "X") + COUNTIF(N49, "X") + COUNTIF(N51, "X") + COUNTIF(N57, "X") + COUNTIF(N58, "X")&amp;"/"&amp;COUNT(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58)</f>
-        <v>11/13</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="str">
+        <v>12/13</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77" t="str">
         <f>SUMIF(N14, "X", B14) *100 + SUMIF(N15, "X", B15) *100 + SUMIF(N20, "X", B20) *100 + SUMIF(N22, "X", B22) *100 + SUMIF(N25, "X", B25) *100 + SUMIF(N28, "X", B28) *100 + SUMIF(N30, "X", B30) *100 + SUMIF(N42, "X", B42) *100  + SUMIF(N43, "X", B43) *100 + SUMIF(N49, "X", B49) *100 + SUMIF(N51, "X", B51) *100 + SUMIF(N57, "X", B57) *100 + SUMIF(N58, "X", B58)*100&amp;"/"&amp;SUM(B14,B15,B20,B22,B25,B28,B30,B42,B43,B49,B51,B57,B58) *100 &amp;"%"</f>
-        <v>28/38%</v>
-      </c>
-      <c r="G69" s="83"/>
+        <v>33/38%</v>
+      </c>
+      <c r="G69" s="78"/>
       <c r="H69" s="20"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3160,861 +3160,861 @@
       <c r="A73" s="1">
         <v>1.2</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="67"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="95"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1.4</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2.4</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60" t="s">
+      <c r="A76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="52"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="89"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="52"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="82"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="86"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
+      <c r="N83" s="89"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="52"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="89"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="98"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="52"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="86"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
+      <c r="A89" s="90"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="86"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="86"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="86"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="89"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="82"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="89"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="52"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="86"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="86"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="88"/>
+      <c r="M101" s="88"/>
+      <c r="N101" s="89"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="52"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="82"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="86"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="89"/>
     </row>
     <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="52"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="55"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="89"/>
     </row>
     <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="52"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="59"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="86"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="56"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="89"/>
     </row>
     <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56">
+      <c r="A110" s="90">
         <v>5.3</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="52"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="82"/>
+      <c r="M110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="88"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="89"/>
     </row>
     <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60">
+      <c r="A112" s="91">
         <v>5.4</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="52"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+      <c r="L112" s="82"/>
+      <c r="M112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="55"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
+      <c r="N113" s="89"/>
     </row>
     <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="56">
+      <c r="A114" s="90">
         <v>5.5</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="52"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="59"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="86"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="59"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="86"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="59"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="86"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="59"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="86"/>
     </row>
     <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="55"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="89"/>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="56">
+      <c r="A120" s="90">
         <v>5.6</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="52"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="82"/>
+      <c r="M120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="55"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
+      <c r="J121" s="88"/>
+      <c r="K121" s="88"/>
+      <c r="L121" s="88"/>
+      <c r="M121" s="88"/>
+      <c r="N121" s="89"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
@@ -4033,282 +4033,227 @@
     </row>
     <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="49"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="123"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="111"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="111"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="111"/>
+      <c r="M125" s="111"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="37" t="s">
+      <c r="B126" s="115"/>
+      <c r="C126" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="111"/>
+      <c r="M126" s="111"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="37" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="37"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="111"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="111"/>
+      <c r="M127" s="111"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="37" t="s">
+      <c r="B128" s="115"/>
+      <c r="C128" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="111"/>
+      <c r="G128" s="111"/>
+      <c r="H128" s="111"/>
+      <c r="I128" s="111"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="111"/>
+      <c r="M128" s="111"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="44"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="117"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="118"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="37" t="s">
+      <c r="B130" s="120"/>
+      <c r="C130" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="111"/>
+      <c r="G130" s="111"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="111"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="110"/>
+      <c r="C131" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="113"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+      <c r="N131" s="114"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
+      <c r="N132" s="114"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="38" t="s">
+      <c r="B133" s="110"/>
+      <c r="C133" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="113"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
+      <c r="N133" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:M50"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="C62:M63"/>
-    <mergeCell ref="A64:N64"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B87:N90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:N83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:N74"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N9"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C130:N130"/>
+    <mergeCell ref="C131:N131"/>
+    <mergeCell ref="C132:N132"/>
+    <mergeCell ref="C133:N133"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:N128"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:N125"/>
+    <mergeCell ref="C126:N126"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="B120:N121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B105:N106"/>
     <mergeCell ref="B102:N104"/>
@@ -4333,30 +4278,85 @@
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:N85"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N9"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C130:N130"/>
-    <mergeCell ref="C131:N131"/>
-    <mergeCell ref="C132:N132"/>
-    <mergeCell ref="C133:N133"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:N128"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C125:N125"/>
-    <mergeCell ref="C126:N126"/>
-    <mergeCell ref="C127:N127"/>
-    <mergeCell ref="B120:N121"/>
+    <mergeCell ref="B87:N90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:N83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N77"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="C62:M63"/>
+    <mergeCell ref="A64:N64"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:M50"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
